--- a/data/pca/factorExposure/factorExposure_2010-05-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-20.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01552760774352976</v>
+        <v>-0.01722329045060465</v>
       </c>
       <c r="C2">
-        <v>0.001614677324471227</v>
+        <v>0.0009820191319790427</v>
       </c>
       <c r="D2">
-        <v>0.01629578625130246</v>
+        <v>0.009335421681236335</v>
       </c>
       <c r="E2">
-        <v>0.02037309093357762</v>
+        <v>0.000183320990788555</v>
       </c>
       <c r="F2">
-        <v>0.01681516973148545</v>
+        <v>0.01280428315452744</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1216117950846963</v>
+        <v>-0.09448623303899531</v>
       </c>
       <c r="C4">
-        <v>-0.1025415551169279</v>
+        <v>0.01747104074162505</v>
       </c>
       <c r="D4">
-        <v>-0.01796123145501632</v>
+        <v>0.08218273062539233</v>
       </c>
       <c r="E4">
-        <v>0.01194274484170414</v>
+        <v>-0.02974329854021323</v>
       </c>
       <c r="F4">
-        <v>0.0584753254692849</v>
+        <v>-0.03343618482721014</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1299317519540927</v>
+        <v>-0.1521761742931274</v>
       </c>
       <c r="C6">
-        <v>-0.0632485283468486</v>
+        <v>0.02454517013660214</v>
       </c>
       <c r="D6">
-        <v>0.003347356323983972</v>
+        <v>-0.02299104481868391</v>
       </c>
       <c r="E6">
-        <v>-0.03118118227779489</v>
+        <v>-0.008828585597329694</v>
       </c>
       <c r="F6">
-        <v>0.01591106397021115</v>
+        <v>-0.04094834051028404</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06662980011363651</v>
+        <v>-0.06119203480453741</v>
       </c>
       <c r="C7">
-        <v>-0.06793247592985692</v>
+        <v>-0.000156886664297682</v>
       </c>
       <c r="D7">
-        <v>0.005797504342039794</v>
+        <v>0.05182184054828399</v>
       </c>
       <c r="E7">
-        <v>0.02991623841363891</v>
+        <v>-0.01636617991079951</v>
       </c>
       <c r="F7">
-        <v>0.01113605088300426</v>
+        <v>-0.05417292716544672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0436920922208246</v>
+        <v>-0.05910685498438412</v>
       </c>
       <c r="C8">
-        <v>-0.03726811894255735</v>
+        <v>-0.01285593474823573</v>
       </c>
       <c r="D8">
-        <v>0.00294991326401496</v>
+        <v>0.03038085168614694</v>
       </c>
       <c r="E8">
-        <v>-0.03626436979525566</v>
+        <v>-0.01415288109844995</v>
       </c>
       <c r="F8">
-        <v>0.04572018763051389</v>
+        <v>0.02916231608321001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08576482356795652</v>
+        <v>-0.07225838576962293</v>
       </c>
       <c r="C9">
-        <v>-0.07643529731754853</v>
+        <v>0.01368854646299713</v>
       </c>
       <c r="D9">
-        <v>-0.02776894010651861</v>
+        <v>0.0819550319448839</v>
       </c>
       <c r="E9">
-        <v>0.003849745469409609</v>
+        <v>-0.02538974089099131</v>
       </c>
       <c r="F9">
-        <v>0.04302169061587764</v>
+        <v>-0.05581982816440078</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1304549910640223</v>
+        <v>-0.09339348535966147</v>
       </c>
       <c r="C10">
-        <v>0.1661024589739426</v>
+        <v>0.0157481740647614</v>
       </c>
       <c r="D10">
-        <v>0.02042770469049068</v>
+        <v>-0.17051424027661</v>
       </c>
       <c r="E10">
-        <v>0.02535437165610634</v>
+        <v>0.03605749600887402</v>
       </c>
       <c r="F10">
-        <v>0.02783807603379861</v>
+        <v>0.05344548055943615</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07233453534492115</v>
+        <v>-0.08829001055345478</v>
       </c>
       <c r="C11">
-        <v>-0.06950498285088827</v>
+        <v>0.01291761102589403</v>
       </c>
       <c r="D11">
-        <v>-0.03380120389595104</v>
+        <v>0.1130237819991873</v>
       </c>
       <c r="E11">
-        <v>-0.0197682900939226</v>
+        <v>-0.04656620753966177</v>
       </c>
       <c r="F11">
-        <v>0.03809498553926141</v>
+        <v>-0.02323112007643351</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06565386370071262</v>
+        <v>-0.09343719878247739</v>
       </c>
       <c r="C12">
-        <v>-0.07123450502861864</v>
+        <v>0.01088912257676491</v>
       </c>
       <c r="D12">
-        <v>-0.05056926264546927</v>
+        <v>0.1205897701863889</v>
       </c>
       <c r="E12">
-        <v>0.01233062068513822</v>
+        <v>-0.04588160731332281</v>
       </c>
       <c r="F12">
-        <v>0.002106107637167639</v>
+        <v>-0.02452256641399822</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03683597338725902</v>
+        <v>-0.0441465866801167</v>
       </c>
       <c r="C13">
-        <v>-0.04136967364261051</v>
+        <v>0.0045558279364567</v>
       </c>
       <c r="D13">
-        <v>0.01671014973086649</v>
+        <v>0.04584838875335467</v>
       </c>
       <c r="E13">
-        <v>0.02985678851084878</v>
+        <v>0.01198450838965001</v>
       </c>
       <c r="F13">
-        <v>0.008096480566117155</v>
+        <v>-0.01518930448776804</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02800860792388765</v>
+        <v>-0.02165518885099775</v>
       </c>
       <c r="C14">
-        <v>-0.02388650505156494</v>
+        <v>0.01479351295698104</v>
       </c>
       <c r="D14">
-        <v>-0.02316397549668429</v>
+        <v>0.03209191476749967</v>
       </c>
       <c r="E14">
-        <v>0.0009895581581945815</v>
+        <v>-0.01857047024998019</v>
       </c>
       <c r="F14">
-        <v>-0.00215587514131977</v>
+        <v>-0.02034033076730112</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01765718369669464</v>
+        <v>-0.03222370894773422</v>
       </c>
       <c r="C15">
-        <v>-0.02333633483704877</v>
+        <v>0.005661776822586731</v>
       </c>
       <c r="D15">
-        <v>0.06326836189598163</v>
+        <v>0.04504712751016121</v>
       </c>
       <c r="E15">
-        <v>0.02026765650710625</v>
+        <v>-0.009212603723681651</v>
       </c>
       <c r="F15">
-        <v>0.01403086665088581</v>
+        <v>-0.03125829581812641</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07854505971813437</v>
+        <v>-0.07510426299694757</v>
       </c>
       <c r="C16">
-        <v>-0.07350843415010212</v>
+        <v>0.004557925538451765</v>
       </c>
       <c r="D16">
-        <v>-0.04165324473511482</v>
+        <v>0.1152374283844922</v>
       </c>
       <c r="E16">
-        <v>-0.03135948255361761</v>
+        <v>-0.06154487431048145</v>
       </c>
       <c r="F16">
-        <v>0.0222704879448185</v>
+        <v>-0.03261465893366493</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0212720062168967</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003814911415886115</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02135765110957606</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01146053899353851</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02346035518851345</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04255756247015302</v>
+        <v>-0.06163247974727112</v>
       </c>
       <c r="C20">
-        <v>-0.02789517113843239</v>
+        <v>0.002246361281270514</v>
       </c>
       <c r="D20">
-        <v>0.02813713058076549</v>
+        <v>0.07191442598009987</v>
       </c>
       <c r="E20">
-        <v>0.02044215620218999</v>
+        <v>-0.05401884205914673</v>
       </c>
       <c r="F20">
-        <v>-0.01005676314966859</v>
+        <v>-0.02811960981577181</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02403930194342958</v>
+        <v>-0.03881701020139557</v>
       </c>
       <c r="C21">
-        <v>-0.01916990784529472</v>
+        <v>0.007782903459007574</v>
       </c>
       <c r="D21">
-        <v>-0.01595728033179061</v>
+        <v>0.0352888843479677</v>
       </c>
       <c r="E21">
-        <v>-0.00456987481689611</v>
+        <v>0.009227460713948083</v>
       </c>
       <c r="F21">
-        <v>0.001229957867101251</v>
+        <v>0.01947624021698169</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05514412421252125</v>
+        <v>-0.04290446490129608</v>
       </c>
       <c r="C22">
-        <v>-0.02201323338537763</v>
+        <v>0.000335143435972902</v>
       </c>
       <c r="D22">
-        <v>0.6294065953590142</v>
+        <v>0.00160867401354081</v>
       </c>
       <c r="E22">
-        <v>0.1207295988404508</v>
+        <v>-0.02965649917401835</v>
       </c>
       <c r="F22">
-        <v>-0.1675299317862385</v>
+        <v>0.01267347774834418</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05577586236201738</v>
+        <v>-0.04295582273715201</v>
       </c>
       <c r="C23">
-        <v>-0.02394620374362506</v>
+        <v>0.0003590366600985137</v>
       </c>
       <c r="D23">
-        <v>0.6318101013129416</v>
+        <v>0.001792388703914998</v>
       </c>
       <c r="E23">
-        <v>0.1205938094331752</v>
+        <v>-0.03002863302063267</v>
       </c>
       <c r="F23">
-        <v>-0.1665429795545343</v>
+        <v>0.01211883581192393</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07901977903984671</v>
+        <v>-0.08151365530022656</v>
       </c>
       <c r="C24">
-        <v>-0.06866657215992288</v>
+        <v>0.004760346638859849</v>
       </c>
       <c r="D24">
-        <v>-0.0378356703020304</v>
+        <v>0.116342694619549</v>
       </c>
       <c r="E24">
-        <v>-0.01508562406528723</v>
+        <v>-0.04945088639254341</v>
       </c>
       <c r="F24">
-        <v>0.01794599368974703</v>
+        <v>-0.02426543140404267</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07826192557419154</v>
+        <v>-0.08589430393012173</v>
       </c>
       <c r="C25">
-        <v>-0.06330757079533215</v>
+        <v>0.006726039759935537</v>
       </c>
       <c r="D25">
-        <v>-0.05391608391489912</v>
+        <v>0.1038139711671296</v>
       </c>
       <c r="E25">
-        <v>-0.004382877665658667</v>
+        <v>-0.03224293745052195</v>
       </c>
       <c r="F25">
-        <v>0.03161430662316352</v>
+        <v>-0.03245131547236974</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0388860335227856</v>
+        <v>-0.05581253693135248</v>
       </c>
       <c r="C26">
-        <v>0.0005037511791716867</v>
+        <v>0.01563045703666495</v>
       </c>
       <c r="D26">
-        <v>0.01426679900952038</v>
+        <v>0.03366131131766651</v>
       </c>
       <c r="E26">
-        <v>-0.02692452299597882</v>
+        <v>-0.02577140867556339</v>
       </c>
       <c r="F26">
-        <v>-0.04528186506495969</v>
+        <v>0.007665535008247518</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1626733839200745</v>
+        <v>-0.1397982742348853</v>
       </c>
       <c r="C28">
-        <v>0.267472592892182</v>
+        <v>0.01346238170953864</v>
       </c>
       <c r="D28">
-        <v>0.00112261647698565</v>
+        <v>-0.2699487768774393</v>
       </c>
       <c r="E28">
-        <v>-0.0692542859507123</v>
+        <v>0.06678701740719804</v>
       </c>
       <c r="F28">
-        <v>-0.00400718241068543</v>
+        <v>-0.03365258609372264</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02877722502134577</v>
+        <v>-0.0270917758956188</v>
       </c>
       <c r="C29">
-        <v>-0.02289128096419194</v>
+        <v>0.009157939230568492</v>
       </c>
       <c r="D29">
-        <v>-0.02744450441537419</v>
+        <v>0.03080162924940794</v>
       </c>
       <c r="E29">
-        <v>0.02397076881046329</v>
+        <v>-0.01146463007461929</v>
       </c>
       <c r="F29">
-        <v>-0.01595291755214829</v>
+        <v>0.01075528871149799</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09706509469338047</v>
+        <v>-0.06460489269311986</v>
       </c>
       <c r="C30">
-        <v>-0.07447226952604999</v>
+        <v>0.006462062688446387</v>
       </c>
       <c r="D30">
-        <v>-0.02405448572629772</v>
+        <v>0.08011870760705105</v>
       </c>
       <c r="E30">
-        <v>-0.07484287974329379</v>
+        <v>-0.02357201710556798</v>
       </c>
       <c r="F30">
-        <v>-0.2016817777005964</v>
+        <v>-0.1148336408697185</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03113894299514228</v>
+        <v>-0.04875099263709839</v>
       </c>
       <c r="C31">
-        <v>-0.0578880379749306</v>
+        <v>0.01518748968113466</v>
       </c>
       <c r="D31">
-        <v>-0.004287512377384242</v>
+        <v>0.02910699764101645</v>
       </c>
       <c r="E31">
-        <v>0.01993707013989356</v>
+        <v>-0.02755090272534428</v>
       </c>
       <c r="F31">
-        <v>0.02050440988587367</v>
+        <v>0.002659682174901735</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05191317209439371</v>
+        <v>-0.04869547876778688</v>
       </c>
       <c r="C32">
-        <v>-0.02315481966413161</v>
+        <v>0.0004115621372596697</v>
       </c>
       <c r="D32">
-        <v>-0.05044619112976658</v>
+        <v>0.02947228785411019</v>
       </c>
       <c r="E32">
-        <v>-0.07743967476414937</v>
+        <v>-0.02894936254673935</v>
       </c>
       <c r="F32">
-        <v>0.05181683682505542</v>
+        <v>-0.0009547490174823415</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08473898424637194</v>
+        <v>-0.0905978523373365</v>
       </c>
       <c r="C33">
-        <v>-0.0602481315582618</v>
+        <v>0.00986988684621049</v>
       </c>
       <c r="D33">
-        <v>-0.03425240827924885</v>
+        <v>0.0917493182987109</v>
       </c>
       <c r="E33">
-        <v>-0.002486786909706946</v>
+        <v>-0.04585822111404016</v>
       </c>
       <c r="F33">
-        <v>-0.01129324387333284</v>
+        <v>-0.03951003173632919</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06861582915871943</v>
+        <v>-0.06911430374854688</v>
       </c>
       <c r="C34">
-        <v>-0.05735397801611446</v>
+        <v>0.01285462419134199</v>
       </c>
       <c r="D34">
-        <v>-0.04115113894867878</v>
+        <v>0.09703750746223437</v>
       </c>
       <c r="E34">
-        <v>-0.01457121156779591</v>
+        <v>-0.03429271472926781</v>
       </c>
       <c r="F34">
-        <v>0.02474722556417838</v>
+        <v>-0.04654349875590837</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01260811856916534</v>
+        <v>-0.02443137370681687</v>
       </c>
       <c r="C35">
-        <v>-0.007946986044002582</v>
+        <v>0.002704561050869827</v>
       </c>
       <c r="D35">
-        <v>-0.0006541555744986441</v>
+        <v>0.01039201274595706</v>
       </c>
       <c r="E35">
-        <v>0.007813019669222643</v>
+        <v>-0.01120436916933212</v>
       </c>
       <c r="F35">
-        <v>0.001605260395656352</v>
+        <v>-0.01128042579845449</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02326316135910469</v>
+        <v>-0.02510100020113862</v>
       </c>
       <c r="C36">
-        <v>-0.01276153221642875</v>
+        <v>0.007271999402373856</v>
       </c>
       <c r="D36">
-        <v>0.01061903631498855</v>
+        <v>0.03760168504237514</v>
       </c>
       <c r="E36">
-        <v>-0.009627885424644241</v>
+        <v>-0.01698586500138996</v>
       </c>
       <c r="F36">
-        <v>-0.007486203604035125</v>
+        <v>-0.007218102312859601</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.016833743389888</v>
+        <v>-0.002509908065548315</v>
       </c>
       <c r="C38">
-        <v>-0.03093357452035107</v>
+        <v>0.0004376010713788438</v>
       </c>
       <c r="D38">
-        <v>0.01978452152278836</v>
+        <v>0.00204274539416437</v>
       </c>
       <c r="E38">
-        <v>0.03598600201889136</v>
+        <v>-0.002834239332817319</v>
       </c>
       <c r="F38">
-        <v>-0.07770051827827401</v>
+        <v>0.002008183442974553</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1094595015472408</v>
+        <v>-0.1104400617619358</v>
       </c>
       <c r="C39">
-        <v>-0.09764523209173577</v>
+        <v>0.01846119674337096</v>
       </c>
       <c r="D39">
-        <v>-0.1394004662724672</v>
+        <v>0.1489609769757413</v>
       </c>
       <c r="E39">
-        <v>-0.04125658598011418</v>
+        <v>-0.0575623924896129</v>
       </c>
       <c r="F39">
-        <v>-0.06827042362207991</v>
+        <v>-0.03340241759989343</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02484141883703535</v>
+        <v>-0.03754025308597182</v>
       </c>
       <c r="C40">
-        <v>-0.05951111278816319</v>
+        <v>0.007612235549246734</v>
       </c>
       <c r="D40">
-        <v>0.02094205215619244</v>
+        <v>0.03054269712084574</v>
       </c>
       <c r="E40">
-        <v>0.05760556765622688</v>
+        <v>-0.004439762526271651</v>
       </c>
       <c r="F40">
-        <v>0.01264020568672719</v>
+        <v>0.0212130956338673</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03511139516392252</v>
+        <v>-0.02670645377748802</v>
       </c>
       <c r="C41">
-        <v>-0.02410584763908461</v>
+        <v>0.006965489498839071</v>
       </c>
       <c r="D41">
-        <v>-0.02095837133840285</v>
+        <v>0.01074876963980125</v>
       </c>
       <c r="E41">
-        <v>0.01893618523180689</v>
+        <v>-0.01224582981227722</v>
       </c>
       <c r="F41">
-        <v>-0.01165847530463567</v>
+        <v>0.01103779847849464</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04371958246811952</v>
+        <v>-0.0423036646144941</v>
       </c>
       <c r="C43">
-        <v>-0.03181181422069552</v>
+        <v>0.007177865179727504</v>
       </c>
       <c r="D43">
-        <v>0.005927206993755889</v>
+        <v>0.02085142915450639</v>
       </c>
       <c r="E43">
-        <v>0.008947769056360291</v>
+        <v>-0.02580360304986166</v>
       </c>
       <c r="F43">
-        <v>-0.02741898666215251</v>
+        <v>0.01163780887578267</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1014218907792736</v>
+        <v>-0.07317110557904109</v>
       </c>
       <c r="C44">
-        <v>-0.1116187813006133</v>
+        <v>0.02257544629685613</v>
       </c>
       <c r="D44">
-        <v>0.07501379275672652</v>
+        <v>0.09898845465977159</v>
       </c>
       <c r="E44">
-        <v>0.04154797264323624</v>
+        <v>-0.06809707890607421</v>
       </c>
       <c r="F44">
-        <v>-0.01993599428141111</v>
+        <v>-0.1721049729697824</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02544879700830921</v>
+        <v>-0.02296358323066071</v>
       </c>
       <c r="C46">
-        <v>-0.001294629413145774</v>
+        <v>0.004123379744980746</v>
       </c>
       <c r="D46">
-        <v>0.02372294542782897</v>
+        <v>0.01162849864338712</v>
       </c>
       <c r="E46">
-        <v>0.02956126825388179</v>
+        <v>-0.02370903216870663</v>
       </c>
       <c r="F46">
-        <v>-0.04406439789284939</v>
+        <v>0.002711188147982162</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04383376897626191</v>
+        <v>-0.05276648412506548</v>
       </c>
       <c r="C47">
-        <v>-0.03159758291676801</v>
+        <v>0.003424971725028914</v>
       </c>
       <c r="D47">
-        <v>-0.00175498838288268</v>
+        <v>0.01251729778119648</v>
       </c>
       <c r="E47">
-        <v>0.01214861359589974</v>
+        <v>-0.02181095570677736</v>
       </c>
       <c r="F47">
-        <v>0.0002236329968571247</v>
+        <v>0.04592716793053905</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04267616711819582</v>
+        <v>-0.0478797453172019</v>
       </c>
       <c r="C48">
-        <v>-0.01451764649412289</v>
+        <v>0.003323032017894967</v>
       </c>
       <c r="D48">
-        <v>-0.01545493573150156</v>
+        <v>0.04619421473590002</v>
       </c>
       <c r="E48">
-        <v>0.01020506792948958</v>
+        <v>0.005549105998283199</v>
       </c>
       <c r="F48">
-        <v>0.02194983573796387</v>
+        <v>-0.01307583062999001</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2180120978917964</v>
+        <v>-0.2027994815968667</v>
       </c>
       <c r="C49">
-        <v>-0.004086310755276789</v>
+        <v>0.0170738719279054</v>
       </c>
       <c r="D49">
-        <v>-0.04541352540151863</v>
+        <v>-0.009981797933473771</v>
       </c>
       <c r="E49">
-        <v>0.1063776284910636</v>
+        <v>-0.03723909392630204</v>
       </c>
       <c r="F49">
-        <v>-0.02487927123542711</v>
+        <v>-0.03212964174726009</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03901751521486773</v>
+        <v>-0.04859529840387201</v>
       </c>
       <c r="C50">
-        <v>-0.02991224156578181</v>
+        <v>0.01119752662028969</v>
       </c>
       <c r="D50">
-        <v>-0.02004753556864903</v>
+        <v>0.02569479759642029</v>
       </c>
       <c r="E50">
-        <v>-0.001599201755552125</v>
+        <v>-0.0287082101400249</v>
       </c>
       <c r="F50">
-        <v>-0.0231933376290587</v>
+        <v>-0.007922982183128329</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02423609079533992</v>
+        <v>-0.003294864729423299</v>
       </c>
       <c r="C51">
-        <v>0.009014049608876725</v>
+        <v>0.0008052312456158651</v>
       </c>
       <c r="D51">
-        <v>0.002504762536830845</v>
+        <v>-0.002322022158542176</v>
       </c>
       <c r="E51">
-        <v>0.01862268377360779</v>
+        <v>-0.000732573719143748</v>
       </c>
       <c r="F51">
-        <v>0.0285080471879363</v>
+        <v>-0.005197806782541703</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.06986206134097116</v>
+        <v>-0.1439948419931645</v>
       </c>
       <c r="C52">
-        <v>-0.06340260406360822</v>
+        <v>0.01313643973722507</v>
       </c>
       <c r="D52">
-        <v>-0.02396369964285788</v>
+        <v>0.05063235137850863</v>
       </c>
       <c r="E52">
-        <v>-0.003936085345450212</v>
+        <v>-0.02019145501171689</v>
       </c>
       <c r="F52">
-        <v>-0.04458887363378838</v>
+        <v>-0.03700455551367288</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.155466335354817</v>
+        <v>-0.17329477610574</v>
       </c>
       <c r="C53">
-        <v>-0.06612757404074547</v>
+        <v>0.01594093075434969</v>
       </c>
       <c r="D53">
-        <v>0.009187018123333945</v>
+        <v>0.01413493079946402</v>
       </c>
       <c r="E53">
-        <v>0.04490567122333002</v>
+        <v>-0.03589550878400964</v>
       </c>
       <c r="F53">
-        <v>-0.07490419018951934</v>
+        <v>-0.07024286182642873</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05646251988143507</v>
+        <v>-0.02279123606936724</v>
       </c>
       <c r="C54">
-        <v>-0.06875832730073803</v>
+        <v>0.01273881555335549</v>
       </c>
       <c r="D54">
-        <v>-0.002078282908498902</v>
+        <v>0.03329969047249847</v>
       </c>
       <c r="E54">
-        <v>0.01442528527884046</v>
+        <v>-0.01517468731412957</v>
       </c>
       <c r="F54">
-        <v>0.04157814800017826</v>
+        <v>0.004377764207195935</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08220226280661205</v>
+        <v>-0.1144232787072675</v>
       </c>
       <c r="C55">
-        <v>-0.05175287930890723</v>
+        <v>0.0146410725330369</v>
       </c>
       <c r="D55">
-        <v>-0.03589401584867224</v>
+        <v>0.0130422374262457</v>
       </c>
       <c r="E55">
-        <v>0.01457235897663313</v>
+        <v>-0.0303048569331488</v>
       </c>
       <c r="F55">
-        <v>-0.009947762659022816</v>
+        <v>-0.05209051849016029</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1426680080191224</v>
+        <v>-0.1773281893821473</v>
       </c>
       <c r="C56">
-        <v>-0.08084552227665158</v>
+        <v>0.01338914900186118</v>
       </c>
       <c r="D56">
-        <v>-0.03426913141988734</v>
+        <v>0.00840788979826167</v>
       </c>
       <c r="E56">
-        <v>0.07046001851475535</v>
+        <v>-0.03981195148372436</v>
       </c>
       <c r="F56">
-        <v>-0.0524090069658481</v>
+        <v>-0.04134634415985639</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05077345603342154</v>
+        <v>-0.0472094775270209</v>
       </c>
       <c r="C58">
-        <v>-0.04184897781334946</v>
+        <v>0.003060361614452038</v>
       </c>
       <c r="D58">
-        <v>0.03749446346556652</v>
+        <v>0.06395025934205462</v>
       </c>
       <c r="E58">
-        <v>0.02550931392238883</v>
+        <v>-0.02177928127142036</v>
       </c>
       <c r="F58">
-        <v>-0.03090518134218851</v>
+        <v>0.05010338613684372</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2195625688577618</v>
+        <v>-0.1709337410571955</v>
       </c>
       <c r="C59">
-        <v>0.229599968221426</v>
+        <v>0.01511996596716058</v>
       </c>
       <c r="D59">
-        <v>-0.03931536769869991</v>
+        <v>-0.2285831621849403</v>
       </c>
       <c r="E59">
-        <v>-0.01363251396442165</v>
+        <v>0.04816445659898093</v>
       </c>
       <c r="F59">
-        <v>0.0826919862111027</v>
+        <v>0.03460673289387994</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2213560045847691</v>
+        <v>-0.2376532673232194</v>
       </c>
       <c r="C60">
-        <v>-0.1198861740297589</v>
+        <v>-0.00430695633660559</v>
       </c>
       <c r="D60">
-        <v>-0.08892426737232664</v>
+        <v>0.04986399335056905</v>
       </c>
       <c r="E60">
-        <v>0.1369552088768033</v>
+        <v>-0.008234634385781496</v>
       </c>
       <c r="F60">
-        <v>-0.0441513335346222</v>
+        <v>0.03560070256816891</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1090408249859034</v>
+        <v>-0.08528613662638716</v>
       </c>
       <c r="C61">
-        <v>-0.07300987597581172</v>
+        <v>0.01441216199515136</v>
       </c>
       <c r="D61">
-        <v>-0.08340422524327461</v>
+        <v>0.1095634639630148</v>
       </c>
       <c r="E61">
-        <v>0.008894675725761001</v>
+        <v>-0.03960157143436362</v>
       </c>
       <c r="F61">
-        <v>-0.03346208831020791</v>
+        <v>-0.01850405262311581</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1382863723009241</v>
+        <v>-0.1696920454093108</v>
       </c>
       <c r="C62">
-        <v>-0.06784935704344053</v>
+        <v>0.01727208709067247</v>
       </c>
       <c r="D62">
-        <v>-0.005446888471653393</v>
+        <v>0.01246236621217216</v>
       </c>
       <c r="E62">
-        <v>0.05847315901831138</v>
+        <v>-0.03704333321574778</v>
       </c>
       <c r="F62">
-        <v>-0.06143427295805349</v>
+        <v>-0.02249769601013984</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04616274261374724</v>
+        <v>-0.0426179553294997</v>
       </c>
       <c r="C63">
-        <v>-0.02907603706715992</v>
+        <v>0.003981411734205819</v>
       </c>
       <c r="D63">
-        <v>-0.008117523447306547</v>
+        <v>0.04870955060268952</v>
       </c>
       <c r="E63">
-        <v>-0.02839075887714822</v>
+        <v>-0.01965703671523725</v>
       </c>
       <c r="F63">
-        <v>0.002256963786405353</v>
+        <v>-0.009491567646616322</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.08949208340913269</v>
+        <v>-0.1121903964843256</v>
       </c>
       <c r="C64">
-        <v>-0.05085111974199766</v>
+        <v>0.01188587301650552</v>
       </c>
       <c r="D64">
-        <v>-0.01303462244513971</v>
+        <v>0.04126895695743969</v>
       </c>
       <c r="E64">
-        <v>0.0683380561096924</v>
+        <v>-0.02019788095191661</v>
       </c>
       <c r="F64">
-        <v>-0.05537580971999759</v>
+        <v>-0.0191429057450794</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1191296383290078</v>
+        <v>-0.1437270333414989</v>
       </c>
       <c r="C65">
-        <v>-0.05261758172757459</v>
+        <v>0.03112307477310388</v>
       </c>
       <c r="D65">
-        <v>-0.01669781606196351</v>
+        <v>-0.04497007729314216</v>
       </c>
       <c r="E65">
-        <v>-0.04729411326293669</v>
+        <v>-0.0003437712953949811</v>
       </c>
       <c r="F65">
-        <v>-0.03326479546531712</v>
+        <v>-0.04363221249331865</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1220729686490902</v>
+        <v>-0.1320748461351854</v>
       </c>
       <c r="C66">
-        <v>-0.1167215919957145</v>
+        <v>0.01594455871190924</v>
       </c>
       <c r="D66">
-        <v>-0.1328217348134549</v>
+        <v>0.1364322121965366</v>
       </c>
       <c r="E66">
-        <v>-0.02195025433360298</v>
+        <v>-0.06439852461780864</v>
       </c>
       <c r="F66">
-        <v>-0.1095236538555732</v>
+        <v>-0.03868115105606214</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06540323696849823</v>
+        <v>-0.06381635478318244</v>
       </c>
       <c r="C67">
-        <v>-0.03747798177311774</v>
+        <v>0.003792286926602889</v>
       </c>
       <c r="D67">
-        <v>0.03417920725351415</v>
+        <v>0.05502041716422656</v>
       </c>
       <c r="E67">
-        <v>0.01329627554392205</v>
+        <v>-0.02024181713298037</v>
       </c>
       <c r="F67">
-        <v>-0.05512698556994856</v>
+        <v>0.04258337627534587</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1380054740378827</v>
+        <v>-0.1141048032598884</v>
       </c>
       <c r="C68">
-        <v>0.2383035334676576</v>
+        <v>0.02450240241099164</v>
       </c>
       <c r="D68">
-        <v>-0.009455891741606664</v>
+        <v>-0.2667922739431315</v>
       </c>
       <c r="E68">
-        <v>-0.06510284627157008</v>
+        <v>0.08507046146881934</v>
       </c>
       <c r="F68">
-        <v>0.006640792160843727</v>
+        <v>-0.04066441019274597</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04173209796504516</v>
+        <v>-0.04012116632279662</v>
       </c>
       <c r="C69">
-        <v>0.00629560564882547</v>
+        <v>0.001194522054665919</v>
       </c>
       <c r="D69">
-        <v>0.0003929487718931095</v>
+        <v>0.009051213904034386</v>
       </c>
       <c r="E69">
-        <v>0.004765308636802487</v>
+        <v>-0.02429137510906395</v>
       </c>
       <c r="F69">
-        <v>-0.03638694016817823</v>
+        <v>0.01419312974972327</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04381952889400726</v>
+        <v>-0.0646653988703878</v>
       </c>
       <c r="C70">
-        <v>-0.01743006299667695</v>
+        <v>-0.02747326257122226</v>
       </c>
       <c r="D70">
-        <v>-0.0381248702043969</v>
+        <v>0.02567687462902794</v>
       </c>
       <c r="E70">
-        <v>0.01618133008212181</v>
+        <v>0.04797497990496521</v>
       </c>
       <c r="F70">
-        <v>-0.0472020769699666</v>
+        <v>0.3083968960318134</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1536456778938532</v>
+        <v>-0.1328877641022848</v>
       </c>
       <c r="C71">
-        <v>0.2664103510035983</v>
+        <v>0.02863762275804273</v>
       </c>
       <c r="D71">
-        <v>-0.00694361447291971</v>
+        <v>-0.2828927119654949</v>
       </c>
       <c r="E71">
-        <v>-0.04562019672566314</v>
+        <v>0.09301573362764656</v>
       </c>
       <c r="F71">
-        <v>-0.0313314112780007</v>
+        <v>-0.04365649686838345</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1389924160451655</v>
+        <v>-0.1383174122701736</v>
       </c>
       <c r="C72">
-        <v>-0.0304622320822668</v>
+        <v>0.02427994355752914</v>
       </c>
       <c r="D72">
-        <v>-0.005195818412259904</v>
+        <v>0.00466110367866288</v>
       </c>
       <c r="E72">
-        <v>0.01386347167404523</v>
+        <v>-0.04304852160859598</v>
       </c>
       <c r="F72">
-        <v>-0.05192023578544464</v>
+        <v>-0.02387672091380031</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2126912569510488</v>
+        <v>-0.2059738866754778</v>
       </c>
       <c r="C73">
-        <v>-0.03925433288694622</v>
+        <v>0.01156395132327227</v>
       </c>
       <c r="D73">
-        <v>-0.1324793913415175</v>
+        <v>0.01568967493617579</v>
       </c>
       <c r="E73">
-        <v>0.1579142481977778</v>
+        <v>-0.06363475141451276</v>
       </c>
       <c r="F73">
-        <v>-0.1156823245343516</v>
+        <v>-0.03050916956952795</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1051381809720083</v>
+        <v>-0.09398079719256307</v>
       </c>
       <c r="C74">
-        <v>-0.09010910180409713</v>
+        <v>0.01194326882135115</v>
       </c>
       <c r="D74">
-        <v>-0.01257036398685788</v>
+        <v>0.02363146113191482</v>
       </c>
       <c r="E74">
-        <v>0.02322934916259719</v>
+        <v>-0.04885816387690758</v>
       </c>
       <c r="F74">
-        <v>-0.09550842002372702</v>
+        <v>-0.0438555102286157</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09974103840819383</v>
+        <v>-0.1299910806887056</v>
       </c>
       <c r="C75">
-        <v>-0.06944477879980858</v>
+        <v>0.02625141707632386</v>
       </c>
       <c r="D75">
-        <v>-0.007237568328820701</v>
+        <v>0.03423001741648482</v>
       </c>
       <c r="E75">
-        <v>0.02290539531284046</v>
+        <v>-0.05971224066319389</v>
       </c>
       <c r="F75">
-        <v>0.0131206911711403</v>
+        <v>-0.01430463438523246</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.04011762987801457</v>
+        <v>-0.005598697480189574</v>
       </c>
       <c r="C76">
-        <v>-0.01913015750563297</v>
+        <v>0.001266585037914149</v>
       </c>
       <c r="D76">
-        <v>-0.006222286191921</v>
+        <v>-0.0003020877249841256</v>
       </c>
       <c r="E76">
-        <v>0.036777308761772</v>
+        <v>-0.003946477606431689</v>
       </c>
       <c r="F76">
-        <v>0.006838399299328082</v>
+        <v>-0.004323737803808712</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06695734526128892</v>
+        <v>-0.0796783635102865</v>
       </c>
       <c r="C77">
-        <v>-0.02929841016531722</v>
+        <v>0.01053391907280016</v>
       </c>
       <c r="D77">
-        <v>-0.03564003853375108</v>
+        <v>0.1090005260177301</v>
       </c>
       <c r="E77">
-        <v>0.02283207074991185</v>
+        <v>-0.03604962657381121</v>
       </c>
       <c r="F77">
-        <v>0.04614055681634194</v>
+        <v>-0.03030344498864469</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1365138373625608</v>
+        <v>-0.1074417358548218</v>
       </c>
       <c r="C78">
-        <v>-0.1365016002064224</v>
+        <v>0.04226995573813308</v>
       </c>
       <c r="D78">
-        <v>0.2012175080048769</v>
+        <v>0.1177512171184273</v>
       </c>
       <c r="E78">
-        <v>-0.007845679449607412</v>
+        <v>-0.08721033575624937</v>
       </c>
       <c r="F78">
-        <v>0.8498093114548682</v>
+        <v>-0.07051539539181684</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1320941725523981</v>
+        <v>-0.1638856984688193</v>
       </c>
       <c r="C79">
-        <v>-0.08332768259624447</v>
+        <v>0.02027499796708998</v>
       </c>
       <c r="D79">
-        <v>0.002039233786297146</v>
+        <v>0.02000669126097682</v>
       </c>
       <c r="E79">
-        <v>0.05217214126973509</v>
+        <v>-0.0472556333900751</v>
       </c>
       <c r="F79">
-        <v>-0.04195734282465207</v>
+        <v>-0.01323243508862234</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07181446574661997</v>
+        <v>-0.08047170273382667</v>
       </c>
       <c r="C80">
-        <v>-0.05723540715080321</v>
+        <v>-0.000468802544495155</v>
       </c>
       <c r="D80">
-        <v>-0.07797666499426896</v>
+        <v>0.05652978903605693</v>
       </c>
       <c r="E80">
-        <v>-0.007212064236953264</v>
+        <v>-0.03326909613085781</v>
       </c>
       <c r="F80">
-        <v>0.01114352943219946</v>
+        <v>0.01778982684591506</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1294901225215528</v>
+        <v>-0.1235139413588937</v>
       </c>
       <c r="C81">
-        <v>-0.08648942590683155</v>
+        <v>0.0302207280697335</v>
       </c>
       <c r="D81">
-        <v>-0.001005147343264472</v>
+        <v>0.01967982105363674</v>
       </c>
       <c r="E81">
-        <v>0.0483041390587219</v>
+        <v>-0.05955862717052161</v>
       </c>
       <c r="F81">
-        <v>-0.0142706723930231</v>
+        <v>-0.004983373231558027</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1333906488977201</v>
+        <v>-0.1631680865613872</v>
       </c>
       <c r="C82">
-        <v>-0.06719631571890405</v>
+        <v>0.02077763055017797</v>
       </c>
       <c r="D82">
-        <v>-0.01738227731186656</v>
+        <v>0.0172189287504747</v>
       </c>
       <c r="E82">
-        <v>0.03109064383640276</v>
+        <v>-0.03417232798258311</v>
       </c>
       <c r="F82">
-        <v>-0.07618772158966286</v>
+        <v>-0.06324839557266174</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08593301766146735</v>
+        <v>-0.06513278850835025</v>
       </c>
       <c r="C83">
-        <v>-0.1633549757443181</v>
+        <v>0.003926126396987356</v>
       </c>
       <c r="D83">
-        <v>-0.01469153583549208</v>
+        <v>0.04926630805656702</v>
       </c>
       <c r="E83">
-        <v>0.009718195217454912</v>
+        <v>-0.005970813800778788</v>
       </c>
       <c r="F83">
-        <v>0.00386044596386879</v>
+        <v>0.0430339724755153</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06058515540409139</v>
+        <v>-0.05943936562249049</v>
       </c>
       <c r="C84">
-        <v>0.0995746146312106</v>
+        <v>0.01145473823348547</v>
       </c>
       <c r="D84">
-        <v>-0.04027556237384169</v>
+        <v>0.06054970459996499</v>
       </c>
       <c r="E84">
-        <v>0.01483397032552668</v>
+        <v>0.001313705157888775</v>
       </c>
       <c r="F84">
-        <v>0.1059167206481839</v>
+        <v>-0.0117569574201285</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1168025789858439</v>
+        <v>-0.1383287926766629</v>
       </c>
       <c r="C85">
-        <v>-0.05169246923381037</v>
+        <v>0.02566802374921244</v>
       </c>
       <c r="D85">
-        <v>-0.01191243723546567</v>
+        <v>0.01527025040703867</v>
       </c>
       <c r="E85">
-        <v>0.07022343966099334</v>
+        <v>-0.0403095245396577</v>
       </c>
       <c r="F85">
-        <v>-0.05489905666921988</v>
+        <v>-0.04723091743251347</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09060329536447474</v>
+        <v>-0.09802001706138311</v>
       </c>
       <c r="C86">
-        <v>-0.0216153552846207</v>
+        <v>-0.006716595365832566</v>
       </c>
       <c r="D86">
-        <v>0.004145904445878591</v>
+        <v>0.02230035025301624</v>
       </c>
       <c r="E86">
-        <v>0.1858670321743968</v>
+        <v>-0.137276286653216</v>
       </c>
       <c r="F86">
-        <v>0.1624336387497564</v>
+        <v>0.8498080561628694</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1181085973884293</v>
+        <v>-0.09944615102425745</v>
       </c>
       <c r="C87">
-        <v>-0.1356524446908245</v>
+        <v>0.0253190153074369</v>
       </c>
       <c r="D87">
-        <v>0.002042030294330798</v>
+        <v>0.07631276798032847</v>
       </c>
       <c r="E87">
-        <v>0.07575624623681482</v>
+        <v>0.05116328014144277</v>
       </c>
       <c r="F87">
-        <v>0.01005193070471309</v>
+        <v>-0.08120038580134441</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05268562579722887</v>
+        <v>-0.06224035079016758</v>
       </c>
       <c r="C88">
-        <v>-0.05583719056905644</v>
+        <v>0.003325374844322307</v>
       </c>
       <c r="D88">
-        <v>-0.04498371486937749</v>
+        <v>0.0534650711170428</v>
       </c>
       <c r="E88">
-        <v>0.02751793522295531</v>
+        <v>-0.02726286013506609</v>
       </c>
       <c r="F88">
-        <v>-0.04194698480299573</v>
+        <v>-0.009098641687250395</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2232958353476326</v>
+        <v>-0.1340315168274294</v>
       </c>
       <c r="C89">
-        <v>0.3588088186531324</v>
+        <v>0.007020014914926077</v>
       </c>
       <c r="D89">
-        <v>0.06261962949155328</v>
+        <v>-0.2632148053233472</v>
       </c>
       <c r="E89">
-        <v>-0.02045967129915318</v>
+        <v>0.09052679105281472</v>
       </c>
       <c r="F89">
-        <v>0.03631536965413732</v>
+        <v>-0.02543432809946555</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1676664782683508</v>
+        <v>-0.1447102636335559</v>
       </c>
       <c r="C90">
-        <v>0.2535672640949369</v>
+        <v>0.02425302469070746</v>
       </c>
       <c r="D90">
-        <v>-0.00390801483674899</v>
+        <v>-0.2710385092507144</v>
       </c>
       <c r="E90">
-        <v>-0.02919675642432222</v>
+        <v>0.1059757551626978</v>
       </c>
       <c r="F90">
-        <v>-0.03213127458470227</v>
+        <v>-0.02625604375035311</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07724075926529425</v>
+        <v>-0.1181232978707382</v>
       </c>
       <c r="C91">
-        <v>-0.06054998012822337</v>
+        <v>0.01649254577267503</v>
       </c>
       <c r="D91">
-        <v>-0.01255709818813259</v>
+        <v>-0.005574681495495764</v>
       </c>
       <c r="E91">
-        <v>0.04767580408469418</v>
+        <v>-0.05688137378007412</v>
       </c>
       <c r="F91">
-        <v>-0.01057459349447031</v>
+        <v>0.0191115691811864</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1891225431262985</v>
+        <v>-0.1481130403529212</v>
       </c>
       <c r="C92">
-        <v>0.2929082472030395</v>
+        <v>0.01601397936139938</v>
       </c>
       <c r="D92">
-        <v>0.03472015495268153</v>
+        <v>-0.3021619133375723</v>
       </c>
       <c r="E92">
-        <v>-0.04422529950038138</v>
+        <v>0.1013315052635107</v>
       </c>
       <c r="F92">
-        <v>0.03439165450923085</v>
+        <v>-0.02254477487337419</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1721441087227245</v>
+        <v>-0.1485369469512581</v>
       </c>
       <c r="C93">
-        <v>0.3047977820435447</v>
+        <v>0.02063924638666792</v>
       </c>
       <c r="D93">
-        <v>-0.03887921440615019</v>
+        <v>-0.2724961432939884</v>
       </c>
       <c r="E93">
-        <v>-0.03948101207488531</v>
+        <v>0.07216206741456815</v>
       </c>
       <c r="F93">
-        <v>-0.02323628138945343</v>
+        <v>-0.01942896204057086</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1253792147802169</v>
+        <v>-0.1334329778226825</v>
       </c>
       <c r="C94">
-        <v>-0.07361132112137604</v>
+        <v>0.0236610831075287</v>
       </c>
       <c r="D94">
-        <v>0.003206279052524076</v>
+        <v>0.04733506237531785</v>
       </c>
       <c r="E94">
-        <v>0.04227269268006739</v>
+        <v>-0.06100116188202408</v>
       </c>
       <c r="F94">
-        <v>-0.025057570500485</v>
+        <v>-0.03237115493201593</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1166172268264303</v>
+        <v>-0.1260930715173014</v>
       </c>
       <c r="C95">
-        <v>-0.05862359412578433</v>
+        <v>0.005608424711573525</v>
       </c>
       <c r="D95">
-        <v>0.01674100410627638</v>
+        <v>0.09089667899909867</v>
       </c>
       <c r="E95">
-        <v>0.0441129824862245</v>
+        <v>-0.04432292399320002</v>
       </c>
       <c r="F95">
-        <v>0.07875077108413088</v>
+        <v>0.01411813216666207</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.004054011743457327</v>
+        <v>-0.09742074286138823</v>
       </c>
       <c r="C96">
-        <v>-0.009388381504594052</v>
+        <v>-0.9890828266346152</v>
       </c>
       <c r="D96">
-        <v>0.00139263253381772</v>
+        <v>-0.02415785027310613</v>
       </c>
       <c r="E96">
-        <v>0.004991461373477672</v>
+        <v>-0.05918857647068766</v>
       </c>
       <c r="F96">
-        <v>0.02344647107645073</v>
+        <v>-0.04816802416958979</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1759839190633661</v>
+        <v>-0.1872805952324953</v>
       </c>
       <c r="C97">
-        <v>-0.196726449273022</v>
+        <v>-0.01162483949405491</v>
       </c>
       <c r="D97">
-        <v>0.1521403370376246</v>
+        <v>-0.009483118587515823</v>
       </c>
       <c r="E97">
-        <v>-0.8757951338936318</v>
+        <v>-0.01586696695616513</v>
       </c>
       <c r="F97">
-        <v>-0.05583057805088187</v>
+        <v>0.1796892543232308</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.228740579247313</v>
+        <v>-0.2052379458471078</v>
       </c>
       <c r="C98">
-        <v>-0.06853408826656129</v>
+        <v>0.006936503482200973</v>
       </c>
       <c r="D98">
-        <v>0.08602428658534157</v>
+        <v>0.01396712668600591</v>
       </c>
       <c r="E98">
-        <v>0.04563310164746379</v>
+        <v>0.09295964308225808</v>
       </c>
       <c r="F98">
-        <v>0.04216680367131889</v>
+        <v>0.1278266277886399</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06020327236841361</v>
+        <v>-0.05742977544422157</v>
       </c>
       <c r="C99">
-        <v>-0.02368211124308463</v>
+        <v>-0.003359826433193172</v>
       </c>
       <c r="D99">
-        <v>0.003739193231026206</v>
+        <v>0.03493661956404204</v>
       </c>
       <c r="E99">
-        <v>0.02940657506165218</v>
+        <v>-0.02634071139536062</v>
       </c>
       <c r="F99">
-        <v>0.006838583812654314</v>
+        <v>-0.004190085643894115</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.002943280990200516</v>
+        <v>-0.1240870846929417</v>
       </c>
       <c r="C100">
-        <v>-0.003305468759179007</v>
+        <v>-0.04916871504926197</v>
       </c>
       <c r="D100">
-        <v>0.01151501928684779</v>
+        <v>0.3361513199865495</v>
       </c>
       <c r="E100">
-        <v>-0.1258511587234694</v>
+        <v>0.9012855540307017</v>
       </c>
       <c r="F100">
-        <v>-0.02941538521485547</v>
+        <v>0.05764709501150477</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02843778469173352</v>
+        <v>-0.02702914438995987</v>
       </c>
       <c r="C101">
-        <v>-0.02342308501456404</v>
+        <v>0.009161201216769218</v>
       </c>
       <c r="D101">
-        <v>-0.0281860118635726</v>
+        <v>0.03054246260521069</v>
       </c>
       <c r="E101">
-        <v>0.02527379900991574</v>
+        <v>-0.01100744503207742</v>
       </c>
       <c r="F101">
-        <v>-0.0155238689818799</v>
+        <v>0.01282266681828577</v>
       </c>
     </row>
     <row r="102" spans="1:6">
